--- a/TABLAS%20PARA%20EL%20CASO%203/Tablas de casos CON SEGURIDAD.xlsx
+++ b/TABLAS%20PARA%20EL%20CASO%203/Tablas de casos CON SEGURIDAD.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CODD.sis.virtual.uniandes.edu.co\Estudiantes\Profiles\fa.lopez10\Desktop\InfraComp caso 3\InfracompCase2\TABLAS PARA EL CASO 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Desktop\WorkSpaces\WorkSpace Infracomp\Workspace Caso 2\TABLAS%20PARA%20EL%20CASO%203\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Esc 8" sheetId="10" r:id="rId10"/>
     <sheet name="Esc 9" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="10"/>
@@ -266,9 +266,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -319,10 +319,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D3A-4BDE-8504-7E2D9D368201}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -331,6 +328,9 @@
                   </a:solidFill>
                 </c14:spPr>
               </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D3A-4BDE-8504-7E2D9D368201}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -352,10 +352,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6D3A-4BDE-8504-7E2D9D368201}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -364,6 +361,9 @@
                   </a:solidFill>
                 </c14:spPr>
               </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D3A-4BDE-8504-7E2D9D368201}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -385,10 +385,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6D3A-4BDE-8504-7E2D9D368201}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -397,6 +394,9 @@
                   </a:solidFill>
                 </c14:spPr>
               </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6D3A-4BDE-8504-7E2D9D368201}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -555,9 +555,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -687,7 +687,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D42A-49B1-A243-EABA88E1A94F}"/>
             </c:ext>
@@ -751,7 +751,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D42A-49B1-A243-EABA88E1A94F}"/>
             </c:ext>
@@ -782,40 +782,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D42A-49B1-A243-EABA88E1A94F}"/>
             </c:ext>
@@ -1002,9 +1002,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1147,7 +1147,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-992B-4957-8B3F-82A967EB6AD7}"/>
             </c:ext>
@@ -1211,7 +1211,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-992B-4957-8B3F-82A967EB6AD7}"/>
             </c:ext>
@@ -1413,9 +1413,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1553,7 +1553,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4A74-4F42-BCA3-1C47AC41281F}"/>
             </c:ext>
@@ -1617,7 +1617,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4A74-4F42-BCA3-1C47AC41281F}"/>
             </c:ext>
@@ -1819,9 +1819,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1959,7 +1959,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C01D-4C86-93C6-8D3763EB5ACA}"/>
             </c:ext>
@@ -2023,7 +2023,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C01D-4C86-93C6-8D3763EB5ACA}"/>
             </c:ext>
@@ -2225,9 +2225,9 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2372,7 +2372,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BB81-41FF-AD75-2B3D2E902A6F}"/>
             </c:ext>
@@ -2438,7 +2438,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BB81-41FF-AD75-2B3D2E902A6F}"/>
             </c:ext>
@@ -2640,9 +2640,9 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2782,7 +2782,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-11F0-4B4A-8B7F-18E772DB0D23}"/>
             </c:ext>
@@ -2848,7 +2848,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-11F0-4B4A-8B7F-18E772DB0D23}"/>
             </c:ext>
@@ -3050,9 +3050,9 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3192,7 +3192,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B5A1-4FD1-BBE7-C6D870B62155}"/>
             </c:ext>
@@ -3225,40 +3225,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B5A1-4FD1-BBE7-C6D870B62155}"/>
             </c:ext>
@@ -3460,9 +3460,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3570,7 +3570,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AD50-4342-B3C9-EB7E3D5C9BCD}"/>
             </c:ext>
@@ -3635,7 +3635,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AD50-4342-B3C9-EB7E3D5C9BCD}"/>
             </c:ext>
@@ -3700,7 +3700,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AD50-4342-B3C9-EB7E3D5C9BCD}"/>
             </c:ext>
@@ -3892,9 +3892,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4034,7 +4034,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DAC6-40A8-9610-47A48883EFFB}"/>
             </c:ext>
@@ -4098,7 +4098,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DAC6-40A8-9610-47A48883EFFB}"/>
             </c:ext>
@@ -4162,7 +4162,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DAC6-40A8-9610-47A48883EFFB}"/>
             </c:ext>
@@ -4349,9 +4349,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4481,7 +4481,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D420-49E5-8A61-EF01B40B0D24}"/>
             </c:ext>
@@ -4545,7 +4545,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D420-49E5-8A61-EF01B40B0D24}"/>
             </c:ext>
@@ -4609,7 +4609,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D420-49E5-8A61-EF01B40B0D24}"/>
             </c:ext>
@@ -4796,9 +4796,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4906,7 +4906,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D1DE-43C4-9A1C-82019AAE1BC4}"/>
             </c:ext>
@@ -4971,7 +4971,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D1DE-43C4-9A1C-82019AAE1BC4}"/>
             </c:ext>
@@ -5036,7 +5036,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D1DE-43C4-9A1C-82019AAE1BC4}"/>
             </c:ext>
@@ -5230,9 +5230,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5372,7 +5372,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2E97-4740-A5CD-43E89EC60004}"/>
             </c:ext>
@@ -5436,7 +5436,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2E97-4740-A5CD-43E89EC60004}"/>
             </c:ext>
@@ -5500,7 +5500,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2E97-4740-A5CD-43E89EC60004}"/>
             </c:ext>
@@ -5687,9 +5687,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5819,7 +5819,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-33F3-4FD0-B6DD-B24FBF8B89FF}"/>
             </c:ext>
@@ -5883,7 +5883,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-33F3-4FD0-B6DD-B24FBF8B89FF}"/>
             </c:ext>
@@ -5947,7 +5947,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-33F3-4FD0-B6DD-B24FBF8B89FF}"/>
             </c:ext>
@@ -6134,9 +6134,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6244,7 +6244,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4176-4E88-B53D-D4A5C2F2CA05}"/>
             </c:ext>
@@ -6309,7 +6309,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4176-4E88-B53D-D4A5C2F2CA05}"/>
             </c:ext>
@@ -6374,7 +6374,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4176-4E88-B53D-D4A5C2F2CA05}"/>
             </c:ext>
@@ -6568,9 +6568,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6710,7 +6710,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FDCE-4534-A9FD-70C6294060D9}"/>
             </c:ext>
@@ -6774,7 +6774,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FDCE-4534-A9FD-70C6294060D9}"/>
             </c:ext>
@@ -6838,7 +6838,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FDCE-4534-A9FD-70C6294060D9}"/>
             </c:ext>
@@ -14390,7 +14390,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -14617,7 +14617,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -14838,11 +14838,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -15024,34 +15024,34 @@
         <v>19</v>
       </c>
       <c r="B7" s="4">
-        <v>9</v>
+        <v>29.49</v>
       </c>
       <c r="C7" s="4">
-        <v>9</v>
+        <v>29.49</v>
       </c>
       <c r="D7" s="4">
-        <v>9</v>
+        <v>29.49</v>
       </c>
       <c r="E7" s="4">
-        <v>9</v>
+        <v>29.49</v>
       </c>
       <c r="F7" s="4">
-        <v>9</v>
+        <v>29.49</v>
       </c>
       <c r="G7" s="4">
-        <v>9</v>
+        <v>29.49</v>
       </c>
       <c r="H7" s="4">
-        <v>9</v>
+        <v>29.49</v>
       </c>
       <c r="I7" s="4">
-        <v>9</v>
+        <v>29.49</v>
       </c>
       <c r="J7" s="4">
-        <v>9</v>
+        <v>29.49</v>
       </c>
       <c r="K7" s="4">
-        <v>9</v>
+        <v>29.49</v>
       </c>
     </row>
   </sheetData>
@@ -15065,7 +15065,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
@@ -15108,11 +15108,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -15341,7 +15341,7 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -15588,7 +15588,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -15814,7 +15814,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -16039,7 +16039,7 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -16267,7 +16267,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -16490,7 +16490,7 @@
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>

--- a/TABLAS%20PARA%20EL%20CASO%203/Tablas de casos CON SEGURIDAD.xlsx
+++ b/TABLAS%20PARA%20EL%20CASO%203/Tablas de casos CON SEGURIDAD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -6677,34 +6677,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>21.472000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>21.472000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>21.472000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>21.472000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>21.472000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>21.472000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>21.472000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>21.472000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>21.472000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>21.472000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14838,8 +14838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -16035,8 +16035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -16224,34 +16224,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>2</v>
+        <v>21.472000000000001</v>
       </c>
       <c r="D8" s="4">
-        <v>2</v>
+        <v>21.472000000000001</v>
       </c>
       <c r="E8" s="4">
-        <v>2</v>
+        <v>21.472000000000001</v>
       </c>
       <c r="F8" s="4">
-        <v>2</v>
+        <v>21.472000000000001</v>
       </c>
       <c r="G8" s="4">
-        <v>2</v>
+        <v>21.472000000000001</v>
       </c>
       <c r="H8" s="4">
-        <v>2</v>
+        <v>21.472000000000001</v>
       </c>
       <c r="I8" s="4">
-        <v>2</v>
+        <v>21.472000000000001</v>
       </c>
       <c r="J8" s="4">
-        <v>2</v>
+        <v>21.472000000000001</v>
       </c>
       <c r="K8" s="4">
-        <v>2</v>
+        <v>21.472000000000001</v>
       </c>
       <c r="L8" s="4">
-        <v>2</v>
+        <v>21.472000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/TABLAS%20PARA%20EL%20CASO%203/Tablas de casos CON SEGURIDAD.xlsx
+++ b/TABLAS%20PARA%20EL%20CASO%203/Tablas de casos CON SEGURIDAD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -1584,34 +1584,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6741,34 +6741,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>32.155999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15337,8 +15337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15541,38 +15541,37 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>5</v>
+        <v>32.155999999999999</v>
       </c>
       <c r="D8" s="4">
-        <v>5</v>
+        <v>32.155999999999999</v>
       </c>
       <c r="E8" s="4">
-        <v>5</v>
+        <v>32.155999999999999</v>
       </c>
       <c r="F8" s="4">
-        <v>5</v>
+        <v>32.155999999999999</v>
       </c>
       <c r="G8" s="4">
-        <v>5</v>
+        <v>32.155999999999999</v>
       </c>
       <c r="H8" s="4">
-        <v>5</v>
+        <v>32.155999999999999</v>
       </c>
       <c r="I8" s="4">
-        <v>5</v>
+        <v>32.155999999999999</v>
       </c>
       <c r="J8" s="4">
-        <v>5</v>
+        <v>32.155999999999999</v>
       </c>
       <c r="K8" s="4">
-        <v>5</v>
+        <v>32.155999999999999</v>
       </c>
       <c r="L8" s="4">
-        <v>5</v>
+        <v>32.155999999999999</v>
       </c>
       <c r="M8" s="4">
-        <f>SUM(C8:L8)/10</f>
-        <v>5</v>
+        <v>32.155999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -16035,7 +16034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:L8"/>
     </sheetView>
   </sheetViews>

--- a/TABLAS%20PARA%20EL%20CASO%203/Tablas de casos CON SEGURIDAD.xlsx
+++ b/TABLAS%20PARA%20EL%20CASO%203/Tablas de casos CON SEGURIDAD.xlsx
@@ -9,20 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
-    <sheet name="Sin segu graphs" sheetId="2" r:id="rId2"/>
-    <sheet name="Esc 4" sheetId="3" r:id="rId3"/>
-    <sheet name="Esc 5" sheetId="4" r:id="rId4"/>
-    <sheet name="Esc 6" sheetId="5" r:id="rId5"/>
-    <sheet name="Esc 7" sheetId="6" r:id="rId6"/>
-    <sheet name="Esc 2" sheetId="7" r:id="rId7"/>
-    <sheet name="Esc 1" sheetId="8" r:id="rId8"/>
-    <sheet name="Con segu graphs" sheetId="9" r:id="rId9"/>
-    <sheet name="Esc 8" sheetId="10" r:id="rId10"/>
-    <sheet name="Esc 9" sheetId="11" r:id="rId11"/>
+    <sheet name="Esc 4" sheetId="3" r:id="rId2"/>
+    <sheet name="Esc 5" sheetId="4" r:id="rId3"/>
+    <sheet name="Esc 6" sheetId="5" r:id="rId4"/>
+    <sheet name="Esc 7" sheetId="6" r:id="rId5"/>
+    <sheet name="Esc 2" sheetId="7" r:id="rId6"/>
+    <sheet name="Esc 1" sheetId="8" r:id="rId7"/>
+    <sheet name="Con segu graphs" sheetId="9" r:id="rId8"/>
+    <sheet name="Esc 8" sheetId="10" r:id="rId9"/>
+    <sheet name="Esc 9" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -270,295 +269,6 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="1200" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>400 transacciones sin seguridad- Tiempo de autenticación</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="3366CC"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Esc 1'!$C$9:$L$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D3A-4BDE-8504-7E2D9D368201}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="DC3912"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Esc 2'!$C$10:$L$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6D3A-4BDE-8504-7E2D9D368201}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF9900"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Esc 3'!$C$10:$L$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6D3A-4BDE-8504-7E2D9D368201}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="177260752"/>
-        <c:axId val="177261312"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="177260752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>repetición [1 a 10]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="2000" i="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="177261312"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="177261312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>Tiempo autenticacion</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="177260752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="222222"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -574,13 +284,10 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -588,8 +295,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>80 transacciones</a:t>
+              <a:rPr lang="es-CO" sz="1600" b="0"/>
+              <a:t>400 transacciones</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -602,33 +309,13 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -636,10 +323,11 @@
             <c:v>1 thread</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -649,39 +337,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Esc 3'!$C$8:$L$8</c:f>
+              <c:f>'Esc 1'!$C$4:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2088</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1964</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>1962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2169</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>1939</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>1995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -689,7 +377,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D42A-49B1-A243-EABA88E1A94F}"/>
+              <c16:uniqueId val="{00000000-AD50-4342-B3C9-EB7E3D5C9BCD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -700,10 +388,11 @@
             <c:v>2 threads</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -713,39 +402,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Esc 6'!$C$8:$L$8</c:f>
+              <c:f>'Esc 4'!$C$5:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -753,7 +442,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D42A-49B1-A243-EABA88E1A94F}"/>
+              <c16:uniqueId val="{00000001-AD50-4342-B3C9-EB7E3D5C9BCD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -764,10 +453,11 @@
             <c:v>8 threads</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -777,39 +467,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Esc 9'!$B$7:$K$7</c:f>
+              <c:f>'Esc 7'!$B$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>29.49</c:v>
+                  <c:v>2240</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.49</c:v>
+                  <c:v>2326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.49</c:v>
+                  <c:v>2382</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.49</c:v>
+                  <c:v>2326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.49</c:v>
+                  <c:v>2293</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.49</c:v>
+                  <c:v>2385</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.49</c:v>
+                  <c:v>2342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.49</c:v>
+                  <c:v>2390</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.49</c:v>
+                  <c:v>2212</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.49</c:v>
+                  <c:v>3049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -817,7 +507,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D42A-49B1-A243-EABA88E1A94F}"/>
+              <c16:uniqueId val="{00000002-AD50-4342-B3C9-EB7E3D5C9BCD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -830,28 +520,26 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="183392304"/>
-        <c:axId val="183392864"/>
+        <c:axId val="180929040"/>
+        <c:axId val="180929600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183392304"/>
+        <c:axId val="180929040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -860,13 +548,10 @@
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -876,28 +561,42 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183392864"/>
+        <c:crossAx val="180929600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183392864"/>
+        <c:axId val="180929600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -905,13 +604,10 @@
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -921,12 +617,14 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183392304"/>
+        <c:crossAx val="180929040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -948,12 +646,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -965,20 +660,20 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+          <a:tint val="75000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1001,7 +696,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1412,7 +1107,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1818,7 +1513,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2224,7 +1919,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2639,7 +2334,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3049,7 +2744,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3463,438 +3158,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1600" b="0"/>
-              <a:t>400 transacciones</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>1 thread</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Esc 1'!$C$4:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2088</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1964</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1962</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2169</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1939</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1973</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD50-4342-B3C9-EB7E3D5C9BCD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2 threads</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Esc 4'!$C$5:$L$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AD50-4342-B3C9-EB7E3D5C9BCD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>8 threads</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Esc 7'!$B$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2240</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2326</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2382</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2326</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2293</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2385</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2342</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2390</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2212</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3049</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AD50-4342-B3C9-EB7E3D5C9BCD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="180929040"/>
-        <c:axId val="180929600"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="180929040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="180929600"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="180929600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="180929040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:tint val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4348,7 +3611,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4795,7 +4058,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5229,7 +4492,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5686,7 +4949,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6133,7 +5396,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6567,7 +5830,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6945,6 +6208,453 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="182596928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>80 transacciones</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Esc 3'!$C$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19.236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.236000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D42A-49B1-A243-EABA88E1A94F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Esc 6'!$C$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D42A-49B1-A243-EABA88E1A94F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Esc 9'!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>29.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D42A-49B1-A243-EABA88E1A94F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="183392304"/>
+        <c:axId val="183392864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="183392304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="183392864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="183392864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="183392304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13574,41 +13284,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" title="Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14387,7 +14062,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14574,34 +14249,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>3</v>
+        <v>19.236000000000001</v>
       </c>
       <c r="D8" s="4">
-        <v>3</v>
+        <v>19.236000000000001</v>
       </c>
       <c r="E8" s="4">
-        <v>3</v>
+        <v>19.236000000000001</v>
       </c>
       <c r="F8" s="4">
-        <v>3</v>
+        <v>19.236000000000001</v>
       </c>
       <c r="G8" s="4">
-        <v>3</v>
+        <v>19.236000000000001</v>
       </c>
       <c r="H8" s="4">
-        <v>3</v>
+        <v>19.236000000000001</v>
       </c>
       <c r="I8" s="4">
-        <v>3</v>
+        <v>19.236000000000001</v>
       </c>
       <c r="J8" s="4">
-        <v>3</v>
+        <v>19.236000000000001</v>
       </c>
       <c r="K8" s="4">
-        <v>3</v>
+        <v>19.236000000000001</v>
       </c>
       <c r="L8" s="4">
-        <v>3</v>
+        <v>19.236000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -14613,233 +14288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3">
-        <v>200</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4">
-        <v>8</v>
-      </c>
-      <c r="I4" s="4">
-        <v>9</v>
-      </c>
-      <c r="J4" s="4">
-        <v>7</v>
-      </c>
-      <c r="K4" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4">
-        <v>8</v>
-      </c>
-      <c r="G5" s="4">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4">
-        <v>8</v>
-      </c>
-      <c r="I5" s="4">
-        <v>8</v>
-      </c>
-      <c r="J5" s="4">
-        <v>7</v>
-      </c>
-      <c r="K5" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4">
-        <v>8</v>
-      </c>
-      <c r="H6" s="4">
-        <v>8</v>
-      </c>
-      <c r="I6" s="4">
-        <v>8</v>
-      </c>
-      <c r="J6" s="4">
-        <v>7</v>
-      </c>
-      <c r="K6" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4">
-        <v>8</v>
-      </c>
-      <c r="H7" s="4">
-        <v>8</v>
-      </c>
-      <c r="I7" s="4">
-        <v>8</v>
-      </c>
-      <c r="J7" s="4">
-        <v>7</v>
-      </c>
-      <c r="K7" s="4">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H5:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15060,51 +14510,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="33.42578125" customWidth="1"/>
-    <col min="17" max="17" width="33.42578125" customWidth="1"/>
-    <col min="20" max="20" width="33.42578125" customWidth="1"/>
-    <col min="23" max="23" width="33.42578125" customWidth="1"/>
-    <col min="26" max="26" width="33.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="12:27" ht="15.75" customHeight="1">
-      <c r="L1" s="7"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -15333,11 +14738,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -15579,7 +14984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L8"/>
   <sheetViews>
@@ -15805,7 +15210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -16030,7 +15435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -16258,7 +15663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L7"/>
   <sheetViews>
@@ -16481,7 +15886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA62"/>
   <sheetViews>
@@ -16750,4 +16155,229 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>200</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4">
+        <v>8</v>
+      </c>
+      <c r="I4" s="4">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4">
+        <v>8</v>
+      </c>
+      <c r="I5" s="4">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4">
+        <v>7</v>
+      </c>
+      <c r="K5" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4">
+        <v>8</v>
+      </c>
+      <c r="I6" s="4">
+        <v>8</v>
+      </c>
+      <c r="J6" s="4">
+        <v>7</v>
+      </c>
+      <c r="K6" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4">
+        <v>8</v>
+      </c>
+      <c r="J7" s="4">
+        <v>7</v>
+      </c>
+      <c r="K7" s="4">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TABLAS%20PARA%20EL%20CASO%203/Tablas de casos CON SEGURIDAD.xlsx
+++ b/TABLAS%20PARA%20EL%20CASO%203/Tablas de casos CON SEGURIDAD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -1685,34 +1685,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6451,34 +6451,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>48.122999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14288,8 +14288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H5:I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14988,8 +14988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15175,34 +15175,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>6</v>
+        <v>48.122999999999998</v>
       </c>
       <c r="D8" s="4">
-        <v>6</v>
+        <v>48.122999999999998</v>
       </c>
       <c r="E8" s="4">
-        <v>6</v>
+        <v>48.122999999999998</v>
       </c>
       <c r="F8" s="4">
-        <v>6</v>
+        <v>48.122999999999998</v>
       </c>
       <c r="G8" s="4">
-        <v>6</v>
+        <v>48.122999999999998</v>
       </c>
       <c r="H8" s="4">
-        <v>6</v>
+        <v>48.122999999999998</v>
       </c>
       <c r="I8" s="4">
-        <v>6</v>
+        <v>48.122999999999998</v>
       </c>
       <c r="J8" s="4">
-        <v>6</v>
+        <v>48.122999999999998</v>
       </c>
       <c r="K8" s="4">
-        <v>6</v>
+        <v>48.122999999999998</v>
       </c>
       <c r="L8" s="4">
-        <v>6</v>
+        <v>48.122999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/TABLAS%20PARA%20EL%20CASO%203/Tablas de casos CON SEGURIDAD.xlsx
+++ b/TABLAS%20PARA%20EL%20CASO%203/Tablas de casos CON SEGURIDAD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -2510,34 +2510,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6068,34 +6068,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>72.364999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14988,7 +14988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -16161,8 +16161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -16347,34 +16347,34 @@
         <v>19</v>
       </c>
       <c r="B7" s="4">
-        <v>8</v>
+        <v>72.364999999999995</v>
       </c>
       <c r="C7" s="4">
-        <v>8</v>
+        <v>72.364999999999995</v>
       </c>
       <c r="D7" s="4">
-        <v>8</v>
+        <v>72.364999999999995</v>
       </c>
       <c r="E7" s="4">
-        <v>8</v>
+        <v>72.364999999999995</v>
       </c>
       <c r="F7" s="4">
-        <v>8</v>
+        <v>72.364999999999995</v>
       </c>
       <c r="G7" s="4">
-        <v>8</v>
+        <v>72.364999999999995</v>
       </c>
       <c r="H7" s="4">
-        <v>8</v>
+        <v>72.364999999999995</v>
       </c>
       <c r="I7" s="4">
-        <v>8</v>
+        <v>72.364999999999995</v>
       </c>
       <c r="J7" s="4">
-        <v>7</v>
+        <v>72.364999999999995</v>
       </c>
       <c r="K7" s="4">
-        <v>8</v>
+        <v>72.364999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/TABLAS%20PARA%20EL%20CASO%203/Tablas de casos CON SEGURIDAD.xlsx
+++ b/TABLAS%20PARA%20EL%20CASO%203/Tablas de casos CON SEGURIDAD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Desktop\WorkSpaces\WorkSpace Infracomp\Workspace Caso 2\TABLAS%20PARA%20EL%20CASO%203\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive - Universidad de Los Andes\2016-2\InfraComp\InfraCompCase2\InfraCompCase2\TABLAS%20PARA%20EL%20CASO%203\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -173,6 +173,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="'Arial'"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -228,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -247,6 +254,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,7 +275,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -407,34 +415,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>2064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>1912</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>2111</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>2088</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>2145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,7 +707,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -809,34 +817,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>2064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>1912</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>2111</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>2088</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>2145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,28 +884,28 @@
                   <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.056000000000001</c:v>
+                  <c:v>19.032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.056000000000001</c:v>
+                  <c:v>19.062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.056000000000001</c:v>
+                  <c:v>19.076000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.056000000000001</c:v>
+                  <c:v>19.053999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.056000000000001</c:v>
+                  <c:v>19.082000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.056000000000001</c:v>
+                  <c:v>19.045999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.056000000000001</c:v>
+                  <c:v>19.059000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.056000000000001</c:v>
+                  <c:v>19.061</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19.056000000000001</c:v>
@@ -1110,7 +1118,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1215,34 +1223,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>754</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>736</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>746</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,34 +1287,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.161999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.146000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.152000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.171999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.212000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.167000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.121000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.131999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.145000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1516,7 +1524,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1621,34 +1629,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>725</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>736</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1685,34 +1693,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.110999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.088999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.177999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.109000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.128</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.097000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.115000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.149000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1922,7 +1930,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2100,34 +2108,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.176000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.144999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.162000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.171999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.141999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.135000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.182000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.177000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2337,7 +2345,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2444,34 +2452,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>1875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>1869</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>1870</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>1817</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>1944</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>2046</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>1957</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>2456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2510,34 +2518,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.341999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.332999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.391000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.372</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.361999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.355000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.367999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2747,7 +2755,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2854,34 +2862,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>7782</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7680</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>7992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>8365</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>7437</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>7247</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>8317</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>7717</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>7628</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>7811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2920,34 +2928,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>29.49</c:v>
+                  <c:v>29.492000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.49</c:v>
+                  <c:v>29.484000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.49</c:v>
+                  <c:v>29.512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.49</c:v>
+                  <c:v>29.501999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.49</c:v>
+                  <c:v>29.466999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.49</c:v>
+                  <c:v>29.489000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.49</c:v>
+                  <c:v>29.498999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.49</c:v>
+                  <c:v>29.47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.49</c:v>
+                  <c:v>29.489000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.49</c:v>
+                  <c:v>29.494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3157,7 +3165,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3264,34 +3272,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>705</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>653</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3328,34 +3336,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>754</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>736</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>746</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3392,34 +3400,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>1875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>1869</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>1870</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>1817</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>1944</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>2046</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>1957</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>2456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3614,7 +3622,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3711,34 +3719,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>786</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>746</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>766</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3775,34 +3783,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>725</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>736</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3839,34 +3847,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>7782</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7680</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>7992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>8365</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>7437</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>7247</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>8317</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>7717</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>7628</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>7811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4061,7 +4069,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4201,34 +4209,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4495,7 +4503,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4602,34 +4610,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4666,34 +4674,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4730,34 +4738,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4952,7 +4960,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5049,34 +5057,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5113,34 +5121,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5177,34 +5185,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5399,7 +5407,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5474,31 +5482,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.218</c:v>
+                  <c:v>8.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.218</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.218</c:v>
+                  <c:v>8.2230000000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.218</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.218</c:v>
+                  <c:v>8.2100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8.218</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.218</c:v>
+                  <c:v>8.2100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.218</c:v>
+                  <c:v>8.2319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.218</c:v>
+                  <c:v>8.2149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8.218</c:v>
@@ -5542,28 +5550,28 @@
                   <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.056000000000001</c:v>
+                  <c:v>19.032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.056000000000001</c:v>
+                  <c:v>19.062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.056000000000001</c:v>
+                  <c:v>19.076000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.056000000000001</c:v>
+                  <c:v>19.053999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.056000000000001</c:v>
+                  <c:v>19.082000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.056000000000001</c:v>
+                  <c:v>19.045999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.056000000000001</c:v>
+                  <c:v>19.059000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.056000000000001</c:v>
+                  <c:v>19.061</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19.056000000000001</c:v>
@@ -5604,34 +5612,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.176000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.144999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.162000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.171999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.141999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.135000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.182000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.153000000000006</c:v>
+                  <c:v>90.177000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5833,7 +5841,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5940,31 +5948,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>21.472000000000001</c:v>
+                  <c:v>21.475000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.472000000000001</c:v>
+                  <c:v>21.462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.472000000000001</c:v>
+                  <c:v>21.451000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.472000000000001</c:v>
+                  <c:v>21.472999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.472000000000001</c:v>
+                  <c:v>21.486000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.472000000000001</c:v>
+                  <c:v>21.463999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.472000000000001</c:v>
+                  <c:v>21.462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.472000000000001</c:v>
+                  <c:v>21.471</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.472000000000001</c:v>
+                  <c:v>21.481000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>21.472000000000001</c:v>
@@ -6004,34 +6012,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.161999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.146000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.152000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.171999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.212000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.167000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.121000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.131999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.145000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.155999999999999</c:v>
+                  <c:v>32.122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6068,34 +6076,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.341999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.332999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.391000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.372</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>72.364999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.361999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.355000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.364999999999995</c:v>
+                  <c:v>72.367999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6290,7 +6298,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6387,31 +6395,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>19.236000000000001</c:v>
+                  <c:v>19.242000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.236000000000001</c:v>
+                  <c:v>19.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.236000000000001</c:v>
+                  <c:v>19.225000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.236000000000001</c:v>
+                  <c:v>19.241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.236000000000001</c:v>
+                  <c:v>19.234999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.236000000000001</c:v>
+                  <c:v>19.236999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.236000000000001</c:v>
+                  <c:v>19.238</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.236000000000001</c:v>
+                  <c:v>19.212</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.236000000000001</c:v>
+                  <c:v>19.251000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19.236000000000001</c:v>
@@ -6451,34 +6459,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.110999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.088999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.155999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.177999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.109000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.128</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.097000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.115000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.122999999999998</c:v>
+                  <c:v>48.149000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6515,34 +6523,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>29.49</c:v>
+                  <c:v>29.492000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.49</c:v>
+                  <c:v>29.484000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.49</c:v>
+                  <c:v>29.512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.49</c:v>
+                  <c:v>29.501999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.49</c:v>
+                  <c:v>29.466999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.49</c:v>
+                  <c:v>29.489000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.49</c:v>
+                  <c:v>29.498999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.49</c:v>
+                  <c:v>29.47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.49</c:v>
+                  <c:v>29.489000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.49</c:v>
+                  <c:v>29.494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13763,7 +13771,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14062,10 +14070,10 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -14144,34 +14152,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="3">
-        <v>6</v>
+        <v>780</v>
       </c>
       <c r="D5" s="3">
-        <v>4</v>
+        <v>707</v>
       </c>
       <c r="E5" s="3">
-        <v>3</v>
+        <v>743</v>
       </c>
       <c r="F5" s="3">
-        <v>5</v>
+        <v>748</v>
       </c>
       <c r="G5" s="3">
-        <v>8</v>
+        <v>786</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>697</v>
       </c>
       <c r="I5" s="3">
-        <v>2</v>
+        <v>683</v>
       </c>
       <c r="J5" s="3">
-        <v>3</v>
+        <v>746</v>
       </c>
       <c r="K5" s="3">
-        <v>4</v>
+        <v>766</v>
       </c>
       <c r="L5" s="3">
-        <v>6</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
@@ -14179,34 +14187,34 @@
         <v>17</v>
       </c>
       <c r="C6" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -14214,34 +14222,34 @@
         <v>18</v>
       </c>
       <c r="C7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
@@ -14249,31 +14257,31 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>19.236000000000001</v>
+        <v>19.242000000000001</v>
       </c>
       <c r="D8" s="4">
-        <v>19.236000000000001</v>
+        <v>19.23</v>
       </c>
       <c r="E8" s="4">
-        <v>19.236000000000001</v>
+        <v>19.225000000000001</v>
       </c>
       <c r="F8" s="4">
-        <v>19.236000000000001</v>
+        <v>19.241</v>
       </c>
       <c r="G8" s="4">
-        <v>19.236000000000001</v>
+        <v>19.234999999999999</v>
       </c>
       <c r="H8" s="4">
-        <v>19.236000000000001</v>
+        <v>19.236999999999998</v>
       </c>
       <c r="I8" s="4">
-        <v>19.236000000000001</v>
+        <v>19.238</v>
       </c>
       <c r="J8" s="4">
-        <v>19.236000000000001</v>
+        <v>19.212</v>
       </c>
       <c r="K8" s="4">
-        <v>19.236000000000001</v>
+        <v>19.251000000000001</v>
       </c>
       <c r="L8" s="4">
         <v>19.236000000000001</v>
@@ -14289,12 +14297,12 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
@@ -14369,34 +14377,34 @@
         <v>16</v>
       </c>
       <c r="B4" s="4">
-        <v>9</v>
+        <v>7782</v>
       </c>
       <c r="C4" s="4">
-        <v>8</v>
+        <v>7680</v>
       </c>
       <c r="D4" s="4">
-        <v>9</v>
+        <v>7992</v>
       </c>
       <c r="E4" s="4">
-        <v>9</v>
+        <v>8365</v>
       </c>
       <c r="F4" s="4">
-        <v>9</v>
+        <v>7437</v>
       </c>
       <c r="G4" s="4">
-        <v>9</v>
+        <v>7247</v>
       </c>
       <c r="H4" s="4">
-        <v>9</v>
+        <v>8317</v>
       </c>
       <c r="I4" s="4">
-        <v>9</v>
+        <v>7717</v>
       </c>
       <c r="J4" s="4">
-        <v>10</v>
+        <v>7628</v>
       </c>
       <c r="K4" s="4">
-        <v>9</v>
+        <v>7811</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -14404,34 +14412,34 @@
         <v>17</v>
       </c>
       <c r="B5" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4">
         <v>9</v>
       </c>
       <c r="G5" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H5" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I5" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J5" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K5" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
@@ -14439,34 +14447,34 @@
         <v>18</v>
       </c>
       <c r="B6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
@@ -14474,34 +14482,34 @@
         <v>19</v>
       </c>
       <c r="B7" s="4">
-        <v>29.49</v>
+        <v>29.492000000000001</v>
       </c>
       <c r="C7" s="4">
-        <v>29.49</v>
+        <v>29.484000000000002</v>
       </c>
       <c r="D7" s="4">
-        <v>29.49</v>
+        <v>29.512</v>
       </c>
       <c r="E7" s="4">
-        <v>29.49</v>
+        <v>29.501999999999999</v>
       </c>
       <c r="F7" s="4">
-        <v>29.49</v>
+        <v>29.466999999999999</v>
       </c>
       <c r="G7" s="4">
-        <v>29.49</v>
+        <v>29.489000000000001</v>
       </c>
       <c r="H7" s="4">
-        <v>29.49</v>
+        <v>29.498999999999999</v>
       </c>
       <c r="I7" s="4">
-        <v>29.49</v>
+        <v>29.47</v>
       </c>
       <c r="J7" s="4">
-        <v>29.49</v>
+        <v>29.489000000000001</v>
       </c>
       <c r="K7" s="4">
-        <v>29.49</v>
+        <v>29.494</v>
       </c>
     </row>
   </sheetData>
@@ -14513,11 +14521,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -14598,34 +14606,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="4">
-        <v>4</v>
+        <v>2195</v>
       </c>
       <c r="D5" s="4">
-        <v>3</v>
+        <v>2045</v>
       </c>
       <c r="E5" s="4">
-        <v>4</v>
+        <v>2071</v>
       </c>
       <c r="F5" s="4">
-        <v>4</v>
+        <v>2064</v>
       </c>
       <c r="G5" s="4">
-        <v>5</v>
+        <v>1912</v>
       </c>
       <c r="H5" s="4">
-        <v>4</v>
+        <v>2111</v>
       </c>
       <c r="I5" s="4">
-        <v>4</v>
+        <v>2088</v>
       </c>
       <c r="J5" s="4">
-        <v>3</v>
+        <v>2014</v>
       </c>
       <c r="K5" s="4">
-        <v>4</v>
+        <v>2145</v>
       </c>
       <c r="L5" s="4">
-        <v>5</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
@@ -14633,34 +14641,34 @@
         <v>17</v>
       </c>
       <c r="C6" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -14668,34 +14676,34 @@
         <v>18</v>
       </c>
       <c r="C7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
@@ -14706,28 +14714,28 @@
         <v>19.056000000000001</v>
       </c>
       <c r="D8" s="4">
-        <v>19.056000000000001</v>
+        <v>19.032</v>
       </c>
       <c r="E8" s="4">
-        <v>19.056000000000001</v>
+        <v>19.062000000000001</v>
       </c>
       <c r="F8" s="4">
-        <v>19.056000000000001</v>
+        <v>19.076000000000001</v>
       </c>
       <c r="G8" s="4">
-        <v>19.056000000000001</v>
+        <v>19.053999999999998</v>
       </c>
       <c r="H8" s="4">
-        <v>19.056000000000001</v>
+        <v>19.082000000000001</v>
       </c>
       <c r="I8" s="4">
-        <v>19.056000000000001</v>
+        <v>19.045999999999999</v>
       </c>
       <c r="J8" s="4">
-        <v>19.056000000000001</v>
+        <v>19.059000000000001</v>
       </c>
       <c r="K8" s="4">
-        <v>19.056000000000001</v>
+        <v>19.061</v>
       </c>
       <c r="L8" s="4">
         <v>19.056000000000001</v>
@@ -14742,11 +14750,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -14829,38 +14837,38 @@
         <v>16</v>
       </c>
       <c r="C5" s="4">
-        <v>5</v>
+        <v>754</v>
       </c>
       <c r="D5" s="4">
-        <v>4</v>
+        <v>728</v>
       </c>
       <c r="E5" s="4">
-        <v>5</v>
+        <v>651</v>
       </c>
       <c r="F5" s="4">
-        <v>5</v>
+        <v>679</v>
       </c>
       <c r="G5" s="4">
-        <v>6</v>
+        <v>736</v>
       </c>
       <c r="H5" s="4">
-        <v>5</v>
+        <v>716</v>
       </c>
       <c r="I5" s="4">
-        <v>5</v>
+        <v>746</v>
       </c>
       <c r="J5" s="4">
-        <v>4</v>
+        <v>673</v>
       </c>
       <c r="K5" s="4">
-        <v>5</v>
+        <v>710</v>
       </c>
       <c r="L5" s="4">
-        <v>6</v>
+        <v>684</v>
       </c>
       <c r="M5" s="4">
         <f>SUM(C5:L5)/10</f>
-        <v>5</v>
+        <v>707.7</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
@@ -14868,38 +14876,38 @@
         <v>17</v>
       </c>
       <c r="C6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" ref="M6:M7" si="0">SUM(C6:L6)/10</f>
-        <v>5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
@@ -14907,38 +14915,38 @@
         <v>18</v>
       </c>
       <c r="C7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
@@ -14946,37 +14954,37 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>32.155999999999999</v>
+        <v>32.161999999999999</v>
       </c>
       <c r="D8" s="4">
-        <v>32.155999999999999</v>
+        <v>32.146000000000001</v>
       </c>
       <c r="E8" s="4">
-        <v>32.155999999999999</v>
+        <v>32.152000000000001</v>
       </c>
       <c r="F8" s="4">
-        <v>32.155999999999999</v>
+        <v>32.171999999999997</v>
       </c>
       <c r="G8" s="4">
-        <v>32.155999999999999</v>
+        <v>32.212000000000003</v>
       </c>
       <c r="H8" s="4">
-        <v>32.155999999999999</v>
+        <v>32.167000000000002</v>
       </c>
       <c r="I8" s="4">
-        <v>32.155999999999999</v>
+        <v>32.121000000000002</v>
       </c>
       <c r="J8" s="4">
-        <v>32.155999999999999</v>
+        <v>32.131999999999998</v>
       </c>
       <c r="K8" s="4">
-        <v>32.155999999999999</v>
+        <v>32.145000000000003</v>
       </c>
       <c r="L8" s="4">
-        <v>32.155999999999999</v>
+        <v>32.122</v>
       </c>
       <c r="M8" s="4">
-        <v>32.155999999999999</v>
+        <v>32.180999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -14988,11 +14996,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -15070,34 +15078,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="4">
-        <v>5</v>
+        <v>808</v>
       </c>
       <c r="D5" s="4">
-        <v>7</v>
+        <v>725</v>
       </c>
       <c r="E5" s="4">
-        <v>6</v>
+        <v>728</v>
       </c>
       <c r="F5" s="4">
-        <v>6</v>
+        <v>729</v>
       </c>
       <c r="G5" s="4">
-        <v>6</v>
+        <v>707</v>
       </c>
       <c r="H5" s="4">
-        <v>7</v>
+        <v>624</v>
       </c>
       <c r="I5" s="4">
-        <v>6</v>
+        <v>736</v>
       </c>
       <c r="J5" s="4">
-        <v>6</v>
+        <v>631</v>
       </c>
       <c r="K5" s="4">
-        <v>5</v>
+        <v>678</v>
       </c>
       <c r="L5" s="4">
-        <v>7</v>
+        <v>852</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
@@ -15105,34 +15113,34 @@
         <v>17</v>
       </c>
       <c r="C6" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H6" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I6" s="4">
         <v>6</v>
       </c>
       <c r="J6" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K6" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L6" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -15140,34 +15148,34 @@
         <v>18</v>
       </c>
       <c r="C7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
@@ -15175,34 +15183,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>48.122999999999998</v>
+        <v>48.110999999999997</v>
       </c>
       <c r="D8" s="4">
-        <v>48.122999999999998</v>
+        <v>48.088999999999999</v>
       </c>
       <c r="E8" s="4">
-        <v>48.122999999999998</v>
+        <v>48.155999999999999</v>
       </c>
       <c r="F8" s="4">
-        <v>48.122999999999998</v>
+        <v>48.177999999999997</v>
       </c>
       <c r="G8" s="4">
-        <v>48.122999999999998</v>
+        <v>48.109000000000002</v>
       </c>
       <c r="H8" s="4">
-        <v>48.122999999999998</v>
+        <v>48.13</v>
       </c>
       <c r="I8" s="4">
-        <v>48.122999999999998</v>
+        <v>48.128</v>
       </c>
       <c r="J8" s="4">
-        <v>48.122999999999998</v>
+        <v>48.097000000000001</v>
       </c>
       <c r="K8" s="4">
-        <v>48.122999999999998</v>
+        <v>48.115000000000002</v>
       </c>
       <c r="L8" s="4">
-        <v>48.122999999999998</v>
+        <v>48.149000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -15215,10 +15223,10 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -15400,34 +15408,34 @@
         <v>19</v>
       </c>
       <c r="B7" s="4">
-        <v>90.153000000000006</v>
+        <v>90.176000000000002</v>
       </c>
       <c r="C7" s="4">
-        <v>90.153000000000006</v>
+        <v>90.122</v>
       </c>
       <c r="D7" s="4">
-        <v>90.153000000000006</v>
+        <v>90.144999999999996</v>
       </c>
       <c r="E7" s="4">
-        <v>90.153000000000006</v>
+        <v>90.162000000000006</v>
       </c>
       <c r="F7" s="4">
-        <v>90.153000000000006</v>
+        <v>90.171999999999997</v>
       </c>
       <c r="G7" s="4">
-        <v>90.153000000000006</v>
+        <v>90.141999999999996</v>
       </c>
       <c r="H7" s="4">
         <v>90.153000000000006</v>
       </c>
       <c r="I7" s="4">
-        <v>90.153000000000006</v>
+        <v>90.135000000000005</v>
       </c>
       <c r="J7" s="4">
-        <v>90.153000000000006</v>
+        <v>90.182000000000002</v>
       </c>
       <c r="K7" s="4">
-        <v>90.153000000000006</v>
+        <v>90.177000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -15437,13 +15445,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -15523,34 +15531,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="3">
-        <v>4</v>
+        <v>691</v>
       </c>
       <c r="D5" s="3">
-        <v>7</v>
+        <v>641</v>
       </c>
       <c r="E5" s="3">
-        <v>8</v>
+        <v>738</v>
       </c>
       <c r="F5" s="3">
-        <v>6</v>
+        <v>690</v>
       </c>
       <c r="G5" s="3">
-        <v>3</v>
+        <v>705</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>660</v>
       </c>
       <c r="I5" s="3">
-        <v>2</v>
+        <v>653</v>
       </c>
       <c r="J5" s="3">
-        <v>4</v>
+        <v>647</v>
       </c>
       <c r="K5" s="3">
-        <v>5</v>
+        <v>663</v>
       </c>
       <c r="L5" s="3">
-        <v>8</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
@@ -15558,34 +15566,34 @@
         <v>17</v>
       </c>
       <c r="C6" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -15593,34 +15601,34 @@
         <v>18</v>
       </c>
       <c r="C7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
@@ -15628,38 +15636,42 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>21.472000000000001</v>
+        <v>21.475000000000001</v>
       </c>
       <c r="D8" s="4">
-        <v>21.472000000000001</v>
+        <v>21.462</v>
       </c>
       <c r="E8" s="4">
-        <v>21.472000000000001</v>
+        <v>21.451000000000001</v>
       </c>
       <c r="F8" s="4">
-        <v>21.472000000000001</v>
+        <v>21.472999999999999</v>
       </c>
       <c r="G8" s="4">
-        <v>21.472000000000001</v>
+        <v>21.486000000000001</v>
       </c>
       <c r="H8" s="4">
-        <v>21.472000000000001</v>
+        <v>21.463999999999999</v>
       </c>
       <c r="I8" s="4">
-        <v>21.472000000000001</v>
+        <v>21.462</v>
       </c>
       <c r="J8" s="4">
-        <v>21.472000000000001</v>
+        <v>21.471</v>
       </c>
       <c r="K8" s="4">
-        <v>21.472000000000001</v>
+        <v>21.481000000000002</v>
       </c>
       <c r="L8" s="4">
         <v>21.472000000000001</v>
       </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+      <c r="I11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15668,10 +15680,10 @@
   <dimension ref="A2:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -15851,31 +15863,31 @@
         <v>19</v>
       </c>
       <c r="C7" s="4">
-        <v>8.218</v>
+        <v>8.23</v>
       </c>
       <c r="D7" s="4">
-        <v>8.218</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E7" s="4">
-        <v>8.218</v>
+        <v>8.2230000000000008</v>
       </c>
       <c r="F7" s="4">
         <v>8.218</v>
       </c>
       <c r="G7" s="4">
-        <v>8.218</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H7" s="4">
         <v>8.218</v>
       </c>
       <c r="I7" s="4">
-        <v>8.218</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="J7" s="4">
-        <v>8.218</v>
+        <v>8.2319999999999993</v>
       </c>
       <c r="K7" s="4">
-        <v>8.218</v>
+        <v>8.2149999999999999</v>
       </c>
       <c r="L7" s="4">
         <v>8.218</v>
@@ -15890,11 +15902,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -16161,13 +16173,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
@@ -16242,34 +16254,34 @@
         <v>16</v>
       </c>
       <c r="B4" s="4">
-        <v>8</v>
+        <v>2016</v>
       </c>
       <c r="C4" s="4">
-        <v>7</v>
+        <v>1875</v>
       </c>
       <c r="D4" s="4">
-        <v>8</v>
+        <v>1869</v>
       </c>
       <c r="E4" s="4">
-        <v>8</v>
+        <v>1870</v>
       </c>
       <c r="F4" s="4">
-        <v>8</v>
+        <v>1817</v>
       </c>
       <c r="G4" s="4">
-        <v>8</v>
+        <v>1944</v>
       </c>
       <c r="H4" s="4">
-        <v>8</v>
+        <v>2046</v>
       </c>
       <c r="I4" s="4">
-        <v>9</v>
+        <v>2018</v>
       </c>
       <c r="J4" s="4">
-        <v>7</v>
+        <v>1957</v>
       </c>
       <c r="K4" s="4">
-        <v>8</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -16277,34 +16289,34 @@
         <v>17</v>
       </c>
       <c r="B5" s="4">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H5" s="4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I5" s="4">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J5" s="4">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="K5" s="4">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
@@ -16312,34 +16324,34 @@
         <v>18</v>
       </c>
       <c r="B6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
@@ -16347,34 +16359,34 @@
         <v>19</v>
       </c>
       <c r="B7" s="4">
-        <v>72.364999999999995</v>
+        <v>72.341999999999999</v>
       </c>
       <c r="C7" s="4">
-        <v>72.364999999999995</v>
+        <v>72.332999999999998</v>
       </c>
       <c r="D7" s="4">
-        <v>72.364999999999995</v>
+        <v>72.378</v>
       </c>
       <c r="E7" s="4">
-        <v>72.364999999999995</v>
+        <v>72.391000000000005</v>
       </c>
       <c r="F7" s="4">
-        <v>72.364999999999995</v>
+        <v>72.372</v>
       </c>
       <c r="G7" s="4">
         <v>72.364999999999995</v>
       </c>
       <c r="H7" s="4">
-        <v>72.364999999999995</v>
+        <v>72.37</v>
       </c>
       <c r="I7" s="4">
-        <v>72.364999999999995</v>
+        <v>72.361999999999995</v>
       </c>
       <c r="J7" s="4">
-        <v>72.364999999999995</v>
+        <v>72.355000000000004</v>
       </c>
       <c r="K7" s="4">
-        <v>72.364999999999995</v>
+        <v>72.367999999999995</v>
       </c>
     </row>
   </sheetData>
